--- a/mb-pls/km2/km2_cluster3.xlsx
+++ b/mb-pls/km2/km2_cluster3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>68.96551724137932</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="C2">
-        <v>74.07407407407408</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="D2">
         <v>29</v>
       </c>
       <c r="E2">
-        <v>7.609382917928354E-09</v>
+        <v>2.757887456494466E-06</v>
       </c>
       <c r="F2">
-        <v>5.776890372311665</v>
+        <v>4.688073669159499</v>
       </c>
     </row>
     <row r="3">
@@ -418,459 +418,327 @@
         </is>
       </c>
       <c r="B3">
-        <v>45.83333333333333</v>
+        <v>31.25</v>
       </c>
       <c r="C3">
-        <v>81.48148148148148</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="D3">
         <v>48</v>
       </c>
       <c r="E3">
-        <v>4.665108695922419E-05</v>
+        <v>0.0009977966639501759</v>
       </c>
       <c r="F3">
-        <v>4.071800704545466</v>
+        <v>3.291147257709135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>X07x1_AN_CONST4_mean_3=0</t>
+          <t>A03_Pos10sVERS=0</t>
         </is>
       </c>
       <c r="B4">
-        <v>47.22222222222222</v>
+        <v>26.15384615384616</v>
       </c>
       <c r="C4">
-        <v>62.96296296296296</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>0.0009848173843630217</v>
+        <v>0.002456863484610687</v>
       </c>
       <c r="F4">
-        <v>3.294828570496962</v>
+        <v>3.028604182089907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A03_Pos10sVERS=0</t>
+          <t>X09x3_FAB_CROISS_reg_rec=0</t>
         </is>
       </c>
       <c r="B5">
-        <v>36.92307692307693</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="C5">
-        <v>88.88888888888889</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="D5">
-        <v>65</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="E5">
-        <v>0.001799030355493406</v>
+        <v>0.007637192531829059</v>
       </c>
       <c r="F5">
-        <v>3.121547806942372</v>
+        <v>2.667702170000107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>X09x3_FAB_CROISS_reg_rec=0</t>
+          <t>A03_PosSeroMyAs=Non</t>
         </is>
       </c>
       <c r="B6">
-        <v>38.18181818181819</v>
+        <v>27.45098039215686</v>
       </c>
       <c r="C6">
         <v>77.77777777777779</v>
       </c>
       <c r="D6">
-        <v>55.00000000000001</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>0.005563834726903613</v>
+        <v>0.01336292488032351</v>
       </c>
       <c r="F6">
-        <v>2.772436653556396</v>
+        <v>2.473947722942311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>X18x2_ABBTX_PS=0</t>
+          <t>T16_BS_TenueSpeciElev=1</t>
         </is>
       </c>
       <c r="B7">
-        <v>37.5</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="C7">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>56.00000000000001</v>
+        <v>81</v>
       </c>
       <c r="E7">
-        <v>0.007899976403158763</v>
+        <v>0.01489356815242525</v>
       </c>
       <c r="F7">
-        <v>2.656315082176007</v>
+        <v>2.434956789041197</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>T10_PS_EauDebi_3=1</t>
+          <t>X12x2_MAT_PC=1</t>
         </is>
       </c>
       <c r="B8">
-        <v>40.47619047619047</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="C8">
-        <v>62.96296296296296</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>0.01193910719125799</v>
+        <v>0.02553210836648901</v>
       </c>
       <c r="F8">
-        <v>2.513939031178025</v>
+        <v>2.233255376928994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>T16_BS_TenueSpeciElev=1</t>
+          <t>y=ENG_malade</t>
         </is>
       </c>
       <c r="B9">
-        <v>32.09876543209877</v>
+        <v>7.5</v>
       </c>
       <c r="C9">
-        <v>96.29629629629629</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="D9">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>0.0136249577159408</v>
+        <v>0.02582054760534586</v>
       </c>
       <c r="F9">
-        <v>2.4670020510105</v>
+        <v>-2.228900173144928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>X12x2_MAT_PC=1</t>
+          <t>X12x2_MAT_PC=2</t>
         </is>
       </c>
       <c r="B10">
-        <v>40.54054054054054</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="C10">
-        <v>55.55555555555556</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E10">
-        <v>0.02394119080342576</v>
+        <v>0.02553210836648901</v>
       </c>
       <c r="F10">
-        <v>2.258071681768957</v>
+        <v>-2.233255376928994</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>X12x2_MAT1FRLAV_1=0</t>
+          <t>T16_BS_TenueSpeciElev=0</t>
         </is>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>40.74074074074074</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>0.03597511769751226</v>
+        <v>0.01489356815242525</v>
       </c>
       <c r="F11">
-        <v>2.097208552988703</v>
+        <v>-2.434956789041197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>X12x2_MAT1FRLAV_1=1</t>
+          <t>A03_PosSeroMyAs=Oui</t>
         </is>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>8.163265306122449</v>
       </c>
       <c r="C12">
-        <v>51.85185185185185</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E12">
-        <v>0.03832827887691796</v>
+        <v>0.01336292488032351</v>
       </c>
       <c r="F12">
-        <v>2.071326666538506</v>
+        <v>-2.473947722942311</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T10_PS_EauDebi_3=2</t>
+          <t>X09x3_FAB_CROISS_reg_rec=1</t>
         </is>
       </c>
       <c r="B13">
-        <v>6.25</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="C13">
-        <v>3.703703703703703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>0.03700905787350871</v>
+        <v>0.007637192531829059</v>
       </c>
       <c r="F13">
-        <v>-2.085664129352358</v>
+        <v>-2.667702170000107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>X12x2_MAT_PC=2</t>
+          <t>y=PS_malade</t>
         </is>
       </c>
       <c r="B14">
-        <v>19.04761904761905</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="C14">
-        <v>44.44444444444444</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>0.02394119080342575</v>
+        <v>0.007153845094670208</v>
       </c>
       <c r="F14">
-        <v>-2.258071681768957</v>
+        <v>-2.689596542806759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>T16_BS_TenueSpeciElev=0</t>
+          <t>A03_Pos10sVERS=1</t>
         </is>
       </c>
       <c r="B15">
-        <v>5.263157894736842</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="C15">
-        <v>3.703703703703703</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>0.01362495771594081</v>
+        <v>0.002456863484610688</v>
       </c>
       <c r="F15">
-        <v>-2.4670020510105</v>
+        <v>-3.028604182089907</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>X07x1_AN_CONST4_mean_3=1</t>
+          <t>X13x2_QUAI_t=0</t>
         </is>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>5.769230769230769</v>
       </c>
       <c r="C16">
-        <v>7.407407407407407</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E16">
-        <v>0.0110570270832329</v>
+        <v>0.0009977966639501759</v>
       </c>
       <c r="F16">
-        <v>-2.540891358996507</v>
+        <v>-3.291147257709135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>X18x2_ABBTX_PS=1</t>
+          <t>X12x2_MAT1FRLAV_1=2</t>
         </is>
       </c>
       <c r="B17">
-        <v>13.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>0.007899976403158763</v>
+        <v>3.016612825438938E-05</v>
       </c>
       <c r="F17">
-        <v>-2.656315082176007</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>y=PS_malade</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>9.67741935483871</v>
-      </c>
-      <c r="C18">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="D18">
-        <v>31</v>
-      </c>
-      <c r="E18">
-        <v>0.007657035618269022</v>
-      </c>
-      <c r="F18">
-        <v>-2.666830159720556</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>X09x3_FAB_CROISS_reg_rec=1</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="C19">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="D19">
-        <v>45</v>
-      </c>
-      <c r="E19">
-        <v>0.005563834726903613</v>
-      </c>
-      <c r="F19">
-        <v>-2.772436653556396</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A03_Pos10sVERS=1</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="C20">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="D20">
-        <v>35</v>
-      </c>
-      <c r="E20">
-        <v>0.001799030355493406</v>
-      </c>
-      <c r="F20">
-        <v>-3.121547806942372</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>y=ENG_malade</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>14.81481481481481</v>
-      </c>
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21">
-        <v>0.001531452677347339</v>
-      </c>
-      <c r="F21">
-        <v>-3.168656512657507</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>X13x2_QUAI_t=0</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>9.615384615384617</v>
-      </c>
-      <c r="C22">
-        <v>18.51851851851852</v>
-      </c>
-      <c r="D22">
-        <v>52</v>
-      </c>
-      <c r="E22">
-        <v>4.665108695922423E-05</v>
-      </c>
-      <c r="F22">
-        <v>-4.071800704545466</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>X12x2_MAT1FRLAV_1=2</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>7.407407407407407</v>
-      </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <v>2.412750270841435E-05</v>
-      </c>
-      <c r="F23">
-        <v>-4.222810167770741</v>
+        <v>-4.172208588330578</v>
       </c>
     </row>
   </sheetData>
